--- a/06-03-2023/data/output/xlsx/Causality for Category/3.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/3.xlsx
@@ -49,243 +49,240 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__19</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
   <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
@@ -313,135 +310,135 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
@@ -460,169 +457,172 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__13</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/3.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="200">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,243 +58,252 @@
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__22</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__23</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__24</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__25</t>
   </si>
   <si>
@@ -316,135 +325,117 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_equals__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
@@ -466,163 +457,130 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>num_of_unknowns__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__22,num_of_decimals__23,num_of_decimals__24,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__15</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -849,61 +807,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.03677221654749745</c:v>
+                  <c:v>0.02757916241062308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03995157384987894</c:v>
+                  <c:v>0.03026634382566586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09061488673139159</c:v>
+                  <c:v>0.05177993527508091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1212121212121212</c:v>
+                  <c:v>0.0707070707070707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1714285714285714</c:v>
+                  <c:v>0.1047619047619048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2025316455696203</c:v>
+                  <c:v>0.1392405063291139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2692307692307692</c:v>
+                  <c:v>0.1730769230769231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3181818181818182</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2777777777777778</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4444444444444444</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6666666666666666</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,7 +918,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1024,10 +982,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$12</c:f>
+              <c:f>MultsDivs!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1048,36 +1006,48 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$12</c:f>
+              <c:f>MultsDivs!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0855614973262032</c:v>
+                  <c:v>0.03208556149732621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07042253521126761</c:v>
+                  <c:v>0.02112676056338028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06451612903225806</c:v>
+                  <c:v>0.02150537634408602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0547945205479452</c:v>
+                  <c:v>0.0136986301369863</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07407407407407407</c:v>
+                  <c:v>0.01851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1081081081081081</c:v>
+                  <c:v>0.02702702702702703</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,7 +1104,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1198,10 +1168,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$18</c:f>
+              <c:f>Equations!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1234,66 +1204,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$18</c:f>
+              <c:f>Equations!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.03711133400200602</c:v>
+                  <c:v>0.02808425275827483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03733602421796166</c:v>
+                  <c:v>0.02825428859737639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0575139146567718</c:v>
+                  <c:v>0.04081632653061224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07848837209302326</c:v>
+                  <c:v>0.05523255813953488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1127450980392157</c:v>
+                  <c:v>0.07843137254901961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1176470588235294</c:v>
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1304347826086956</c:v>
+                  <c:v>0.07608695652173914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1851851851851852</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2285714285714286</c:v>
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3529411764705883</c:v>
+                  <c:v>0.2352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,7 +1302,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1414,10 +1366,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$25</c:f>
+              <c:f>Decimals!$C$4:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1477,75 +1429,99 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$25</c:f>
+              <c:f>Decimals!$D$4:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.04180064308681672</c:v>
+                  <c:v>0.02893890675241157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04674796747967479</c:v>
+                  <c:v>0.03252032520325204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04657534246575343</c:v>
+                  <c:v>0.0273972602739726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06719367588932806</c:v>
+                  <c:v>0.03557312252964427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09580838323353294</c:v>
+                  <c:v>0.05389221556886228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.05555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1411764705882353</c:v>
+                  <c:v>0.08235294117647059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1692307692307692</c:v>
+                  <c:v>0.09230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1951219512195122</c:v>
+                  <c:v>0.1463414634146341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2580645161290323</c:v>
+                  <c:v>0.1612903225806452</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3043478260869565</c:v>
+                  <c:v>0.1739130434782609</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4285714285714285</c:v>
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,7 +1578,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1666,10 +1642,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$17</c:f>
+              <c:f>Unknowns!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1702,42 +1678,36 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$17</c:f>
+              <c:f>Unknowns!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.03707414829659319</c:v>
+                  <c:v>0.0280561122244489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04392386530014641</c:v>
+                  <c:v>0.03513909224011713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1368421052631579</c:v>
+                  <c:v>0.1052631578947368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1923076923076923</c:v>
+                  <c:v>0.1153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08695652173913043</c:v>
+                  <c:v>0.1304347826086956</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1428571428571428</c:v>
@@ -1750,12 +1720,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,7 +1776,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1876,10 +1840,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$19</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1897,87 +1861,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$19</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.06532663316582915</c:v>
+                  <c:v>0.04522613065326633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1146496815286624</c:v>
+                  <c:v>0.08280254777070063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1466666666666667</c:v>
+                  <c:v>0.09333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2325581395348837</c:v>
+                  <c:v>0.09302325581395349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2352941176470588</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.05882352941176471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,7 +1944,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2600,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03677221654749745</v>
+        <v>0.02757916241062308</v>
       </c>
       <c r="E3" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -2621,16 +2531,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03995157384987894</v>
+        <v>0.03026634382566586</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.321618646808052</v>
+        <v>0.1873585881519801</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2644,16 +2554,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09061488673139159</v>
+        <v>0.05177993527508091</v>
       </c>
       <c r="E5" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>0.3330759295186459</v>
+        <v>0.09914922041815601</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2667,16 +2577,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1212121212121212</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>0.3715018454537498</v>
+        <v>0.1437609614417594</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2690,16 +2600,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1714285714285714</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>0.3713789536500229</v>
+        <v>0.1609460785478671</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2713,16 +2623,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.2025316455696203</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>0.3899057043156374</v>
+        <v>0.1794132982813184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2736,16 +2646,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2692307692307692</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>0.4119952675959178</v>
+        <v>0.1929725543838051</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2759,16 +2669,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E10" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>0.3873629804222226</v>
+        <v>0.1707912152382834</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2782,16 +2692,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.3181818181818182</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1">
-        <v>0.4491070749414383</v>
+        <v>-0.07141704966812297</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2805,16 +2715,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <v>0.4209290724765634</v>
+        <v>-0.08138896564984072</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2828,16 +2738,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>0.3678343414678495</v>
+        <v>-0.01060961965249539</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2851,16 +2761,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="1">
-        <v>0.5282014141702749</v>
+        <v>0.1022596938766334</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2874,16 +2784,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="1">
-        <v>0.5505375953376449</v>
+        <v>0.1214760857565598</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2897,16 +2807,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1">
-        <v>0.5779323969145227</v>
+        <v>0.1466780254623402</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2920,16 +2830,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G17" s="1">
-        <v>0.7150142575015546</v>
+        <v>0.1965739549191885</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2943,16 +2853,16 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>0.7722011605344347</v>
+        <v>0.1398313979474829</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2966,16 +2876,16 @@
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="1">
-        <v>0.86952914423788</v>
+        <v>0.1139012562986808</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2989,16 +2899,16 @@
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="1">
-        <v>0.86952914423788</v>
+        <v>0.1139012562986808</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3012,16 +2922,16 @@
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="1">
-        <v>0.86952914423788</v>
+        <v>0.1139012562986808</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3035,16 +2945,16 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.04180064308681672</v>
+        <v>0.02893890675241157</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="1">
-        <v>0.1773394233671535</v>
+        <v>0.05430649085946164</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3058,16 +2968,16 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.04674796747967479</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>0.2114198936272075</v>
+        <v>0.06467518328455636</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3081,21 +2991,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.04657534246575343</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.1704159161703694</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -3104,21 +3012,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.06719367588932806</v>
+        <v>0.03557312252964427</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1">
-        <v>0.1838720356798838</v>
+        <v>-0.03858652124400258</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -3127,21 +3035,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.09580838323353294</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="1">
-        <v>0.2320033308715502</v>
+        <v>-0.01521129077724237</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -3150,21 +3058,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1">
-        <v>0.2410711062742029</v>
+        <v>-0.01114123161268198</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -3173,21 +3081,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.1411764705882353</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="1">
-        <v>0.3149295694541848</v>
+        <v>0.01535673235366252</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -3196,21 +3104,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1692307692307692</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3335734420932356</v>
+        <v>0.02820584020656548</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -3219,21 +3127,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.1951219512195122</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3270954346101826</v>
+        <v>0.04945886694525735</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -3242,21 +3150,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.2580645161290323</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3654228299996574</v>
+        <v>0.07299393949153182</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -3265,21 +3173,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.3043478260869565</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E32" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1">
-        <v>0.3902477206727896</v>
+        <v>0.08502809644439635</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -3288,21 +3196,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1">
-        <v>0.4214825307131804</v>
+        <v>0.08668438679396553</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -3311,21 +3219,21 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="1">
-        <v>0.3752811663279045</v>
+        <v>0.08727961490932445</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -3334,21 +3242,21 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="1">
-        <v>0.4368426685978556</v>
+        <v>0.02728741485372209</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -3357,21 +3265,21 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E36" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" s="1">
-        <v>0.5199327478556194</v>
+        <v>0.04206937492343418</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -3380,21 +3288,21 @@
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="1">
-        <v>0.5199327478556194</v>
+        <v>0.04206937492343418</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -3403,21 +3311,21 @@
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1">
-        <v>0.2082629433919928</v>
+        <v>0.2294590221188168</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -3426,21 +3334,21 @@
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="1">
-        <v>0.275803717727592</v>
+        <v>0.2558977402438332</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -3449,21 +3357,21 @@
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E40" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="1">
-        <v>0.275803717727592</v>
+        <v>0.2558977402438332</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3475,18 +3383,18 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E41" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1">
-        <v>0.1097617417536872</v>
+        <v>0.307367967925168</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3495,14 +3403,16 @@
         <v>40</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.4202163603219022</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3516,19 +3426,21 @@
         <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.4202163603219022</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3537,19 +3449,21 @@
         <v>42</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.4202163603219022</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3558,19 +3472,21 @@
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.4202163603219022</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3582,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -3591,7 +3507,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3603,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -3612,7 +3528,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3624,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3633,7 +3549,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3645,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -3654,7 +3570,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3666,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -3675,7 +3591,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3687,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3696,7 +3612,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3705,21 +3621,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.03711133400200602</v>
+        <v>0.02808425275827483</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G52" s="1">
-        <v>0.3209361506359911</v>
+        <v>0.1876682326919334</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3728,21 +3644,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.03733602421796166</v>
+        <v>0.02825428859737639</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G53" s="1">
-        <v>0.3210143639048465</v>
+        <v>0.1877004811658883</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3751,21 +3667,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0575139146567718</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1">
-        <v>0.2444278107441271</v>
+        <v>0.1739625519041421</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3774,21 +3690,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.07848837209302326</v>
+        <v>0.05523255813953488</v>
       </c>
       <c r="E55" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G55" s="1">
-        <v>0.2772563690742007</v>
+        <v>0.1804381421669219</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3797,21 +3713,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.1127450980392157</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="E56" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G56" s="1">
-        <v>0.3081988844449255</v>
+        <v>0.1884988335696393</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3820,21 +3736,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E57" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G57" s="1">
-        <v>0.2830217223623775</v>
+        <v>0.1095425781991873</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3843,21 +3759,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.1304347826086956</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="E58" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G58" s="1">
-        <v>0.3113207854407172</v>
+        <v>0.1405944756380845</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3866,21 +3782,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1851851851851852</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E59" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G59" s="1">
-        <v>0.2851248229441331</v>
+        <v>0.08454204320887534</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3889,21 +3805,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.2285714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E60" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1">
-        <v>0.273418316841636</v>
+        <v>0.1572239968050248</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3912,21 +3828,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.3529411764705883</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G61" s="1">
-        <v>0.2484547714214886</v>
+        <v>0.2006410758666493</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3935,21 +3851,21 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E62" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G62" s="1">
-        <v>0.2447994381041614</v>
+        <v>-0.2286234165451922</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3958,21 +3874,19 @@
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.2135685649731611</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3981,21 +3895,19 @@
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.8206974812650867</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -4004,16 +3916,14 @@
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.8206974812650867</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4027,16 +3937,16 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0855614973262032</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="E66" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G66" s="1">
-        <v>0.2419662405353665</v>
+        <v>-0.3164712252510307</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4050,21 +3960,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.07042253521126761</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E67" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.2212826196204905</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -4073,21 +3981,19 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.06451612903225806</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E68" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.2724372774149929</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -4096,21 +4002,19 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0547945205479452</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E69" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.3374526033920668</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -4119,21 +4023,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.07407407407407407</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E70" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.3576579014815782</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -4142,21 +4044,19 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E71" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.3729117045038731</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -4168,18 +4068,18 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="E72" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G72" s="1">
-        <v>-0.1857146284906347</v>
+        <v>-0.02011407596362877</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -4188,19 +4088,21 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E73" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-0.0004396563365426565</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -4209,19 +4111,21 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E74" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.0260156696215684</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -4233,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
@@ -4242,7 +4146,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -4254,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -4263,7 +4167,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -4275,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -4284,7 +4188,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -4296,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -4305,7 +4209,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4317,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -4326,7 +4230,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -4335,10 +4239,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="E80" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -4347,7 +4251,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -4356,21 +4260,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.04392386530014641</v>
+        <v>0.03513909224011713</v>
       </c>
       <c r="E81" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G81" s="1">
-        <v>0.3416944088727368</v>
+        <v>0.2011593812409288</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -4379,21 +4283,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.1368421052631579</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E82" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G82" s="1">
-        <v>0.2169974700774743</v>
+        <v>0.0301615117554368</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -4402,21 +4306,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.1923076923076923</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E83" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G83" s="1">
-        <v>0.2495007942682783</v>
+        <v>0.0243328201630704</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -4425,21 +4329,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E84" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G84" s="1">
-        <v>0.1042673560848881</v>
+        <v>0.08971551984480279</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -4451,18 +4355,18 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="E85" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G85" s="1">
-        <v>0.143423733581847</v>
+        <v>0.09466881886280946</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -4471,21 +4375,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E86" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G86" s="1">
-        <v>0.1445662897599771</v>
+        <v>0.1168125945725322</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -4497,18 +4401,18 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="E87" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G87" s="1">
-        <v>0.1672832529397952</v>
+        <v>0.1112719493172689</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -4520,18 +4424,18 @@
         <v>0.2</v>
       </c>
       <c r="E88" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G88" s="1">
-        <v>0.2893268233025247</v>
+        <v>0.1520536260569751</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4543,18 +4447,18 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E89" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G89" s="1">
-        <v>0.3799547946126795</v>
+        <v>0.2226295713680716</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4566,18 +4470,18 @@
         <v>0.5</v>
       </c>
       <c r="E90" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G90" s="1">
-        <v>0.4809901420736898</v>
+        <v>0.2958954875327304</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4586,21 +4490,19 @@
         <v>89</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" s="1">
-        <v>0.8206974812650867</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4609,21 +4511,19 @@
         <v>90</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G92" s="1">
-        <v>0.8206974812650867</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4632,21 +4532,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.06532663316582915</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="E93" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G93" s="1">
-        <v>0.3121765025630983</v>
+        <v>0.1739946143899211</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4655,21 +4555,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1146496815286624</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="E94" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G94" s="1">
-        <v>0.3021682990468011</v>
+        <v>0.1619066716780335</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4678,21 +4578,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.1466666666666667</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="E95" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G95" s="1">
-        <v>0.2027800126773105</v>
+        <v>-0.003650195331302515</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4701,21 +4601,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.2325581395348837</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E96" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G96" s="1">
-        <v>0.3343219710631589</v>
+        <v>-0.2254610728152766</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4724,21 +4624,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="E97" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G97" s="1">
-        <v>0.3575647880960206</v>
+        <v>-0.2151437505926769</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4747,21 +4647,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.2352941176470588</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E98" s="1">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G98" s="1">
-        <v>0.33315541437778</v>
+        <v>-0.2651347148525107</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4770,21 +4670,19 @@
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.2900193348710656</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4793,21 +4691,19 @@
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0.4852456167880294</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4816,21 +4712,19 @@
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G101" s="1">
-        <v>0.3427184546613398</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4839,21 +4733,19 @@
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0.3427184546613398</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4862,21 +4754,19 @@
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G103" s="1">
-        <v>0.3427184546613398</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4885,21 +4775,19 @@
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G104" s="1">
-        <v>0.3427184546613398</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4908,21 +4796,19 @@
         <v>103</v>
       </c>
       <c r="D105" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G105" s="1">
-        <v>0.5583375289942581</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4931,21 +4817,19 @@
         <v>104</v>
       </c>
       <c r="D106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G106" s="1">
-        <v>0.8206974812650867</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4954,16 +4838,14 @@
         <v>105</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G107" s="1">
-        <v>0.8206974812650867</v>
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +4866,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5007,25 +4889,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5039,13 +4921,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03677221654749745</v>
+        <v>0.02757916241062308</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0003019317490957421</v>
+        <v>-0.0004769498138258131</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5082,13 +4964,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03995157384987894</v>
+        <v>0.03026634382566586</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1">
-        <v>0.002877425553285747</v>
+        <v>0.002210231601216962</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5125,13 +5007,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.09061488673139159</v>
+        <v>0.05177993527508091</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0535407384347984</v>
+        <v>0.02372382305063201</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5168,13 +5050,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1212121212121212</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1">
-        <v>0.08413797291552802</v>
+        <v>0.04265095848262181</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5211,13 +5093,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1714285714285714</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1">
-        <v>0.1343544231319782</v>
+        <v>0.07670579253745587</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5254,13 +5136,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2025316455696203</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1">
-        <v>0.1654574972730271</v>
+        <v>0.111184394104665</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5297,13 +5179,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2692307692307692</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F10" s="1">
-        <v>0.232156620934176</v>
+        <v>0.1450208108524742</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5340,13 +5222,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F11" s="1">
-        <v>0.2129258517034068</v>
+        <v>0.1219438877755511</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5383,13 +5265,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.3181818181818182</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F12" s="1">
-        <v>0.281107669885225</v>
+        <v>0.1537620695937329</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5426,13 +5308,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2407036294811846</v>
+        <v>0.1386105544422178</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5469,13 +5351,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F14" s="1">
-        <v>0.3629258517034069</v>
+        <v>0.2719438877755511</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5512,13 +5394,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.4444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F15" s="1">
-        <v>0.4073702961478513</v>
+        <v>0.3052772211088844</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -5555,13 +5437,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E16" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F16" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.3469438877755511</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -5598,13 +5480,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E17" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F17" s="1">
-        <v>0.5343544231319782</v>
+        <v>0.4005153163469797</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -5641,13 +5523,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F18" s="1">
-        <v>0.6295925183700735</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="G18" s="1">
         <f>1/(POWER(B18,1.5))</f>
@@ -5684,13 +5566,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F19" s="1">
-        <v>0.7129258517034068</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="G19" s="1">
         <f>1/(POWER(B19,1.5))</f>
@@ -5727,13 +5609,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F20" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="G20" s="1">
         <f>1/(POWER(B20,1.5))</f>
@@ -5770,13 +5652,13 @@
         <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F21" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="G21" s="1">
         <f>1/(POWER(B21,1.5))</f>
@@ -5813,13 +5695,13 @@
         <v>19</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F22" s="1">
-        <v>0.9629258517034068</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="G22" s="1">
         <f>1/(POWER(B22,1.5))</f>
@@ -5853,7 +5735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5864,7 +5746,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5887,25 +5769,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5919,13 +5801,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0855614973262032</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1">
-        <v>0.04848734902961001</v>
+        <v>0.004029449272877308</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5962,13 +5844,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.07042253521126761</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1">
-        <v>0.03334838691467442</v>
+        <v>-0.006929351661068617</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5996,7 +5878,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -6005,13 +5887,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.06451612903225806</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1">
-        <v>0.02744198073566487</v>
+        <v>-0.006550735880362875</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6039,7 +5921,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -6048,13 +5930,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0547945205479452</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01772037225135201</v>
+        <v>-0.0143574820874626</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6082,7 +5964,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -6091,13 +5973,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.07407407407407407</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1">
-        <v>0.03699992577748088</v>
+        <v>-0.009537593705930381</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6125,7 +6007,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -6134,13 +6016,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1081081081081081</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1">
-        <v>0.07103395981151492</v>
+        <v>-0.00102908519742187</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6168,7 +6050,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -6180,10 +6062,10 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F10" s="1">
-        <v>0.008380397157952267</v>
+        <v>0.01739843323009656</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6206,6 +6088,92 @@
       </c>
       <c r="L10" s="1">
         <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.03076741718731581</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.06285297868464201</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -6217,7 +6185,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6228,7 +6196,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6251,30 +6219,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -6283,13 +6251,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03711133400200602</v>
+        <v>0.02808425275827483</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1">
-        <v>3.718570541282745E-05</v>
+        <v>2.814053382592732E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6317,7 +6285,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -6326,13 +6294,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03733602421796166</v>
+        <v>0.02825428859737639</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0002618759213684693</v>
+        <v>0.0001981763729274888</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6360,7 +6328,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -6369,13 +6337,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.0575139146567718</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1">
-        <v>0.02043976636017861</v>
+        <v>0.01276021430616334</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6403,7 +6371,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -6412,13 +6380,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.07848837209302326</v>
+        <v>0.05523255813953488</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1">
-        <v>0.04141422379643007</v>
+        <v>0.02717644591508599</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6446,7 +6414,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -6455,13 +6423,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1127450980392157</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1">
-        <v>0.07567094974262251</v>
+        <v>0.05037526032457071</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6489,7 +6457,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -6498,13 +6466,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1176470588235294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1">
-        <v>0.08057291052693621</v>
+        <v>0.03076741718731581</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6532,7 +6500,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -6541,13 +6509,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1304347826086956</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F10" s="1">
-        <v>0.09336063431210245</v>
+        <v>0.04803084429729024</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6575,7 +6543,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -6584,13 +6552,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1851851851851852</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F11" s="1">
-        <v>0.148111036888592</v>
+        <v>0.08305499888666221</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6618,7 +6586,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -6627,13 +6595,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.2285714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1914972802748354</v>
+        <v>0.114801030632694</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6661,7 +6629,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3">
         <v>17</v>
@@ -6670,13 +6638,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.3529411764705883</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F13" s="1">
-        <v>0.3158670281739951</v>
+        <v>0.2072380054226099</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6704,7 +6672,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3">
         <v>9</v>
@@ -6713,13 +6681,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F14" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.08305499888666221</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6742,135 +6710,6 @@
       </c>
       <c r="L14" s="1">
         <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.1629258517034068</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.9629258517034068</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.9629258517034068</v>
-      </c>
-      <c r="G17" s="1">
-        <f>1/(POWER(B17,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>MIN(K17,1-D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -6882,7 +6721,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6893,7 +6732,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6916,25 +6755,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6948,13 +6787,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.04180064308681672</v>
+        <v>0.02893890675241157</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1">
-        <v>0.00472649479022353</v>
+        <v>0.0008827945279626763</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6991,13 +6830,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.04674796747967479</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1">
-        <v>0.009673819183081606</v>
+        <v>0.004464212978803138</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7034,13 +6873,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04657534246575343</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1">
-        <v>0.009501194169160239</v>
+        <v>-0.0006588519504762969</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7068,7 +6907,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -7077,13 +6916,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06719367588932806</v>
+        <v>0.03557312252964427</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1">
-        <v>0.03011952759273488</v>
+        <v>0.007517010305195373</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7111,7 +6950,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -7120,13 +6959,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.09580838323353294</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1">
-        <v>0.05873423493693975</v>
+        <v>0.02583610334441338</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7154,7 +6993,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -7163,13 +7002,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1">
-        <v>0.07403696281451791</v>
+        <v>0.02749944333110665</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7197,7 +7036,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -7206,13 +7045,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1411764705882353</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F10" s="1">
-        <v>0.1041023222916421</v>
+        <v>0.05429682895202169</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7240,7 +7079,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -7249,13 +7088,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1692307692307692</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F11" s="1">
-        <v>0.132156620934176</v>
+        <v>0.06425158008324341</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -7283,7 +7122,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -7292,13 +7131,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1951219512195122</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F12" s="1">
-        <v>0.158047802922919</v>
+        <v>0.1182853511901852</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -7326,7 +7165,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -7335,13 +7174,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2580645161290323</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2209903678324391</v>
+        <v>0.1332342103561963</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -7369,7 +7208,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -7378,13 +7217,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.3043478260869565</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F14" s="1">
-        <v>0.2672736777903634</v>
+        <v>0.145856931253812</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -7412,7 +7251,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
@@ -7421,13 +7260,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F15" s="1">
-        <v>0.3629258517034069</v>
+        <v>0.1719438877755511</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -7455,7 +7294,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -7464,13 +7303,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F16" s="1">
-        <v>0.2629258517034068</v>
+        <v>0.1719438877755511</v>
       </c>
       <c r="G16" s="1">
         <f>1/(POWER(B16,1.5))</f>
@@ -7498,7 +7337,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3">
         <v>7</v>
@@ -7507,13 +7346,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E17" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F17" s="1">
-        <v>0.3914972802748354</v>
+        <v>0.114801030632694</v>
       </c>
       <c r="G17" s="1">
         <f>1/(POWER(B17,1.5))</f>
@@ -7541,7 +7380,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3">
         <v>6</v>
@@ -7550,13 +7389,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E18" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F18" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.1386105544422178</v>
       </c>
       <c r="G18" s="1">
         <f>1/(POWER(B18,1.5))</f>
@@ -7584,7 +7423,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3">
         <v>6</v>
@@ -7593,13 +7432,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E19" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F19" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.1386105544422178</v>
       </c>
       <c r="G19" s="1">
         <f>1/(POWER(B19,1.5))</f>
@@ -7627,7 +7466,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3">
         <v>5</v>
@@ -7636,13 +7475,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F20" s="1">
-        <v>0.3629258517034069</v>
+        <v>0.1719438877755511</v>
       </c>
       <c r="G20" s="1">
         <f>1/(POWER(B20,1.5))</f>
@@ -7670,7 +7509,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
@@ -7679,13 +7518,13 @@
         <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F21" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.2219438877755511</v>
       </c>
       <c r="G21" s="1">
         <f>1/(POWER(B21,1.5))</f>
@@ -7713,7 +7552,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -7722,13 +7561,13 @@
         <v>19</v>
       </c>
       <c r="D22" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F22" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.2219438877755511</v>
       </c>
       <c r="G22" s="1">
         <f>1/(POWER(B22,1.5))</f>
@@ -7756,7 +7595,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -7768,10 +7607,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E23" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F23" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.3052772211088844</v>
       </c>
       <c r="G23" s="1">
         <f>1/(POWER(B23,1.5))</f>
@@ -7794,6 +7633,178 @@
       </c>
       <c r="L23" s="1">
         <f>MIN(K23,1-D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.4719438877755511</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1/(POWER(B24,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>SQRT((D24-POWER(10,-4))*B24*((1-D24+POWER(10,-4))*B24))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f>G24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K24" s="1">
+        <f>I24*J24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f>MIN(K24,1-D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.4719438877755511</v>
+      </c>
+      <c r="G25" s="1">
+        <f>1/(POWER(B25,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>SQRT((D25-POWER(10,-4))*B25*((1-D25+POWER(10,-4))*B25))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f>G25*H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K25" s="1">
+        <f>I25*J25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f>MIN(K25,1-D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.4719438877755511</v>
+      </c>
+      <c r="G26" s="1">
+        <f>1/(POWER(B26,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SQRT((D26-POWER(10,-4))*B26*((1-D26+POWER(10,-4))*B26))</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f>G26*H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K26" s="1">
+        <f>I26*J26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f>MIN(K26,1-D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.0280561122244489</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.4719438877755511</v>
+      </c>
+      <c r="G27" s="1">
+        <f>1/(POWER(B27,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f>SQRT((D27-POWER(10,-4))*B27*((1-D27+POWER(10,-4))*B27))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <f>G27*H27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K27" s="1">
+        <f>I27*J27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f>MIN(K27,1-D27)</f>
         <v>0</v>
       </c>
     </row>
@@ -7805,7 +7816,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7816,7 +7827,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7839,30 +7850,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -7871,10 +7882,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -7905,7 +7916,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -7914,13 +7925,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.04392386530014641</v>
+        <v>0.03513909224011713</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1">
-        <v>0.006849717003553225</v>
+        <v>0.007082980015668233</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7948,7 +7959,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -7957,13 +7968,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1368421052631579</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1">
-        <v>0.09976795696656471</v>
+        <v>0.07720704567028794</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7991,7 +8002,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -8000,13 +8011,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1923076923076923</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1552335440110991</v>
+        <v>0.08732850316016649</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -8034,7 +8045,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -8043,13 +8054,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.08695652173913043</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1">
-        <v>0.04988237344253724</v>
+        <v>0.1023786703842468</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -8077,7 +8088,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -8089,10 +8100,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1">
-        <v>0.1057829945605497</v>
+        <v>0.114801030632694</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -8120,7 +8131,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -8129,13 +8140,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F10" s="1">
-        <v>0.05383494261249772</v>
+        <v>0.1537620695937329</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -8163,7 +8174,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
@@ -8175,10 +8186,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F11" s="1">
-        <v>0.1057829945605497</v>
+        <v>0.114801030632694</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -8206,7 +8217,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -8218,10 +8229,10 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1629258517034068</v>
+        <v>0.1719438877755511</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -8249,7 +8260,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -8261,10 +8272,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F13" s="1">
-        <v>0.2962591850367401</v>
+        <v>0.3052772211088844</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -8292,7 +8303,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -8304,10 +8315,10 @@
         <v>0.5</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F14" s="1">
-        <v>0.4629258517034068</v>
+        <v>0.4719438877755511</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -8330,92 +8341,6 @@
       </c>
       <c r="L14" s="1">
         <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.9629258517034068</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.9629258517034068</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -8427,7 +8352,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8438,7 +8363,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8461,30 +8386,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -8493,13 +8418,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06532663316582915</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F4" s="1">
-        <v>0.02825248486923596</v>
+        <v>0.01717001842881744</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -8527,7 +8452,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -8536,13 +8461,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1146496815286624</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F5" s="1">
-        <v>0.07757553323206923</v>
+        <v>0.05474643554625173</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -8570,7 +8495,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -8579,13 +8504,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1466666666666667</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1095925183700735</v>
+        <v>0.06527722110888444</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -8613,7 +8538,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -8622,13 +8547,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2325581395348837</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F7" s="1">
-        <v>0.1954839912382905</v>
+        <v>0.06496714358950459</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -8656,7 +8581,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -8665,13 +8590,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F8" s="1">
-        <v>0.2429258517034068</v>
+        <v>0.0919438877755511</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -8699,7 +8624,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B9" s="3">
         <v>17</v>
@@ -8708,13 +8633,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2352941176470588</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03707414829659319</v>
+        <v>0.0280561122244489</v>
       </c>
       <c r="F9" s="1">
-        <v>0.1982199693504656</v>
+        <v>0.03076741718731581</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -8737,393 +8662,6 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.2129258517034068</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.4629258517034068</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.2962591850367401</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.2962591850367401</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.2962591850367401</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.2962591850367401</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.4629258517034068</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.9629258517034068</v>
-      </c>
-      <c r="G17" s="1">
-        <f>1/(POWER(B17,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>MIN(K17,1-D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.03707414829659319</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.9629258517034068</v>
-      </c>
-      <c r="G18" s="1">
-        <f>1/(POWER(B18,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f>G18*H18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K18" s="1">
-        <f>I18*J18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <f>MIN(K18,1-D18)</f>
         <v>0</v>
       </c>
     </row>
